--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3453,12 +3453,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4839,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5091,12 +5091,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5175,12 +5175,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7107,12 +7107,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
